--- a/data/sortedmasterchem.xlsx
+++ b/data/sortedmasterchem.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['Green Noki', 'Green Toad', 'Hammer Bro', 'Lara Croft', 'Mrs.Claus', 'Green Shy Guy', 'Luigi', 'Green Magikoopa', 'Koopa Paratroopa', 'Baby Luigi', 'Green Dry Bones', 'King K Rool', 'Kritter', 'Koopa Troopa']</t>
+          <t>['Green Noki', 'Green Toad', 'Hammer Bro', 'Lara Croft', 'Queen', 'Green Shy Guy', 'Luigi', 'Green Magikoopa', 'Koopa Paratroopa', 'Baby Luigi', 'Green Dry Bones', 'King K Rool', 'Kritter', 'Koopa Troopa']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Lara Croft', 'Mrs.Claus', 'Blue Dry Bones', 'Unc', 'Bowser Jr', 'Koopa Paratroopa', 'Dark Bones', 'Bowser', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Goomba']</t>
+          <t>['Lara Croft', 'Queen', 'Blue Dry Bones', 'Unc', 'Bowser Jr', 'Koopa Paratroopa', 'Dark Bones', 'Bowser', 'Green Dry Bones', 'Dry Bones', 'Red Koopa Paratroopa', 'Goomba']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['Green Toad', 'Green Noki', 'Red Noki', 'Mikasa', 'Queen', 'Noki', 'Purple Toad', 'Borat', 'Mario', 'Blue Toad', 'Yellow Toad', 'Toad', 'Toadsworth']</t>
+          <t>['Green Toad', 'Green Noki', 'Red Noki', 'Mikasa', 'Mrs.Claus', 'Noki', 'Purple Toad', 'Borat', 'Mario', 'Blue Toad', 'Yellow Toad', 'Toad', 'Toadsworth']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['Wario', 'Mikasa', 'Queen', 'Yellow Shy Guy', 'Yellow Pianta', 'Wiggler', 'Yellow Toad', 'Yellow Yoshi', 'Yellow Magikoopa']</t>
+          <t>['Wario', 'Mikasa', 'Mrs.Claus', 'Yellow Shy Guy', 'Yellow Pianta', 'Wiggler', 'Yellow Toad', 'Yellow Yoshi', 'Yellow Magikoopa']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['Red Pianta', 'Lara Croft', 'Mrs.Claus', 'Yellow Pianta', 'Unc', 'Toadette', 'Peach', 'Pianta', 'Toadsworth', 'Baby Peach']</t>
+          <t>['Red Pianta', 'Lara Croft', 'Queen', 'Yellow Pianta', 'Unc', 'Toadette', 'Peach', 'Pianta', 'Toadsworth', 'Baby Peach']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['Red Pianta', 'Mikasa', 'Queen', 'Yellow Pianta', 'Borat', 'Toadette', 'Peach', 'Pianta', 'Toadsworth', 'Baby Peach']</t>
+          <t>['Red Pianta', 'Mikasa', 'Mrs.Claus', 'Yellow Pianta', 'Borat', 'Toadette', 'Peach', 'Pianta', 'Toadsworth', 'Baby Peach']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['Blooper', 'Mikasa', 'Queen', 'Borat', 'King Boo', 'Petey Piranha']</t>
+          <t>['Blooper', 'Mikasa', 'Mrs.Claus', 'Borat', 'King Boo', 'Petey Piranha']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['Red Koopa Troopa', 'Lara Croft', 'Mrs.Claus', 'Unc', 'Bowser', 'Paragoomba', 'Koopa Troopa']</t>
+          <t>['Red Koopa Troopa', 'Lara Croft', 'Queen', 'Unc', 'Bowser', 'Paragoomba', 'Koopa Troopa']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['Lara Croft', 'Mrs.Claus', 'Unc', 'Bowser Jr', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Yellow Magikoopa']</t>
+          <t>['Lara Croft', 'Queen', 'Unc', 'Bowser Jr', 'Green Magikoopa', 'Bowser', 'Magikoopa', 'Red Magikoopa', 'Yellow Magikoopa']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['Red Pianta', 'Lara Croft', 'Mrs.Claus', 'Yellow Pianta', 'Unc', 'Toadette', 'Mario', 'Pianta']</t>
+          <t>['Red Pianta', 'Lara Croft', 'Queen', 'Yellow Pianta', 'Unc', 'Toadette', 'Mario', 'Pianta']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['Red Koopa Troopa', 'Lara Croft', 'Mrs.Claus', 'Unc', 'Bowser', 'Koopa Troopa']</t>
+          <t>['Red Koopa Troopa', 'Lara Croft', 'Queen', 'Unc', 'Bowser', 'Koopa Troopa']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['Waluigi', 'Mikasa', 'Queen', 'Borat']</t>
+          <t>['Waluigi', 'Mikasa', 'Mrs.Claus', 'Borat']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['Lara Croft', 'Mrs.Claus', 'Red Kritter', 'Unc', 'King Boo', 'Blue Kritter', 'Kritter', 'Brown Kritter']</t>
+          <t>['Lara Croft', 'Queen', 'Red Kritter', 'Unc', 'King Boo', 'Blue Kritter', 'Kritter', 'Brown Kritter']</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['Fire Bro', 'Hammer Bro', 'Boo', 'Lara Croft', 'Mrs.Claus', 'Boomerang Bro', 'Unc', 'Bowser Jr.', 'Bowser']</t>
+          <t>['Fire Bro', 'Hammer Bro', 'Boo', 'Lara Croft', 'Queen', 'Boomerang Bro', 'Unc', 'Bowser Jr.', 'Bowser']</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['Fire Bro', 'Hammer Bro', 'Boo', 'Mikasa', 'Queen', 'Boomerang Bro', 'Borat', 'Bowser Jr.', 'Bowser']</t>
+          <t>['Fire Bro', 'Hammer Bro', 'Boo', 'Mikasa', 'Mrs.Claus', 'Boomerang Bro', 'Borat', 'Bowser Jr.', 'Bowser']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['Baby DK', 'Lara Croft', 'Mrs.Claus', 'Unc', 'Baby Daisy', 'Baby Mario', 'Pink Yoshi', 'Yoshi', 'Light Blue Yoshi', 'Yellow Yoshi', 'Red Yoshi', 'Blue Yoshi', 'Baby Peach']</t>
+          <t>['Baby DK', 'Lara Croft', 'Queen', 'Unc', 'Baby Daisy', 'Baby Mario', 'Pink Yoshi', 'Yoshi', 'Light Blue Yoshi', 'Yellow Yoshi', 'Red Yoshi', 'Blue Yoshi', 'Baby Peach']</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['Baby DK', 'Mikasa', 'Queen', 'Borat', 'Baby Daisy', 'Baby Mario', 'Mario', 'Baby Luigi', 'Birdo', 'Baby Peach']</t>
+          <t>['Baby DK', 'Mikasa', 'Mrs.Claus', 'Borat', 'Baby Daisy', 'Baby Mario', 'Mario', 'Baby Luigi', 'Birdo', 'Baby Peach']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['King K Rool', 'Lara Croft', 'Mrs.Claus', 'Unc']</t>
+          <t>['King K Rool', 'Lara Croft', 'Queen', 'Unc']</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['Unc', 'Lara Croft', 'Mrs.Claus', 'Mario', 'Daisy']</t>
+          <t>['Unc', 'Lara Croft', 'Queen', 'Mario', 'Daisy']</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['Lara Croft', 'Mrs.Claus', 'Boo', 'Unc', 'Monty Mole', 'Birdo']</t>
+          <t>['Lara Croft', 'Queen', 'Boo', 'Unc', 'Monty Mole', 'Birdo']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['Boo', 'Mikasa', 'Queen', 'Borat', 'Monty Mole', 'Birdo']</t>
+          <t>['Boo', 'Mikasa', 'Mrs.Claus', 'Borat', 'Monty Mole', 'Birdo']</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3146,7 +3146,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mrs.Claus</t>
+          <t>Queen</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3198,7 +3198,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Queen</t>
+          <t>Mrs.Claus</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
